--- a/biology/Botanique/Rubus_koehleri/Rubus_koehleri.xlsx
+++ b/biology/Botanique/Rubus_koehleri/Rubus_koehleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rubus koehleri est une espèce de plantes à fleurs de la famille des rosacées et du genre Rubus. Sa fructification s'effectue en septembre.
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rubus koehleri a des turions rouge bordeaux, pourvus d'épines et d'aiguillons légèrement inclinée. Ces feuilles sont composées des cinq folioles, (plus rarement quatre), mesurant quinze à vingt cm de long. Elles sont courbées vers l'extérieur et recouvertes d'un fin duvet sur leur partie inférieure.
 Les fleurs, blanches à rose pâle, sont rassemblées en inflorescence pyramidale.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre Rubus koehleri sur des sols riches en nutriments dans des clairières ou en lisière de forêt.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est présent en Allemagne, en Suisse, en Pologne et en République Tchèque.
 En France, il pousse naturellement dans l'Est, le Centre et les Pyrénées.
